--- a/Documentação_CovêniosSaída.xlsx
+++ b/Documentação_CovêniosSaída.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2cb3d3d3ab363be3/git/dadosAbertosSEGOVMG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_A00C3EBA7D9A6D2C82DA887ABCFB0D7B6A61C7FA" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{25F3FD0D-0DE4-49F5-886B-ADDD059E2329}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="11_A00C3EBA7D9A6D2C82DA887ABCFB0D7B6A61C7FA" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{092C1496-E850-4E8B-9D2D-CDC24D82B0E1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
   <si>
     <t>Nome</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Formato dos dados</t>
   </si>
   <si>
-    <t>Relatórios contendo o status e a execução das emendas parlamentares - Emendas 2020</t>
-  </si>
-  <si>
     <t>Execução das emendas parlamentares - Emendas 2020</t>
   </si>
   <si>
@@ -87,6 +84,156 @@
   </si>
   <si>
     <t>Nome do Relatório</t>
+  </si>
+  <si>
+    <t>valores_indicados_emendas_impos</t>
+  </si>
+  <si>
+    <t>responsavel</t>
+  </si>
+  <si>
+    <t>uo</t>
+  </si>
+  <si>
+    <t>orgao</t>
+  </si>
+  <si>
+    <t>n_sigcon</t>
+  </si>
+  <si>
+    <t>tipo_indicacao</t>
+  </si>
+  <si>
+    <t>ano_inciso</t>
+  </si>
+  <si>
+    <t>impositividade</t>
+  </si>
+  <si>
+    <t>municipio</t>
+  </si>
+  <si>
+    <t>razao_social</t>
+  </si>
+  <si>
+    <t>cnpj</t>
+  </si>
+  <si>
+    <t>codesc</t>
+  </si>
+  <si>
+    <t>acao</t>
+  </si>
+  <si>
+    <t>grupo_despesa</t>
+  </si>
+  <si>
+    <t>genero</t>
+  </si>
+  <si>
+    <t>categoria</t>
+  </si>
+  <si>
+    <t>especificacao</t>
+  </si>
+  <si>
+    <t>descricao</t>
+  </si>
+  <si>
+    <t>tipo_aplicacao</t>
+  </si>
+  <si>
+    <t>vl_indicado</t>
+  </si>
+  <si>
+    <t>data_indicacao_sigcon</t>
+  </si>
+  <si>
+    <t>vl_informado</t>
+  </si>
+  <si>
+    <t>Responsável pela emenda</t>
+  </si>
+  <si>
+    <t>Unidade Organizacional</t>
+  </si>
+  <si>
+    <t>Órgão</t>
+  </si>
+  <si>
+    <t>Tipo de Indicação</t>
+  </si>
+  <si>
+    <t>pode ser deputado etc</t>
+  </si>
+  <si>
+    <t>Ano do Inciso</t>
+  </si>
+  <si>
+    <t>Impositividade</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Município</t>
+  </si>
+  <si>
+    <t>Razão Social</t>
+  </si>
+  <si>
+    <t>Razão social do beneficiário</t>
+  </si>
+  <si>
+    <t>CNPJ</t>
+  </si>
+  <si>
+    <t>CNPJ do beneficiário</t>
+  </si>
+  <si>
+    <t>Ação</t>
+  </si>
+  <si>
+    <t>Ação da LOA 2020</t>
+  </si>
+  <si>
+    <t>Grupo de Despesa</t>
+  </si>
+  <si>
+    <t>Grupo de despesa LOA 2020</t>
+  </si>
+  <si>
+    <t>Número de Referência SIGCON</t>
+  </si>
+  <si>
+    <t>Código Escola</t>
+  </si>
+  <si>
+    <t>Código das escolas, intitutos e centros educacionais</t>
+  </si>
+  <si>
+    <t>Gênero</t>
+  </si>
+  <si>
+    <t>Gênero da despesa</t>
+  </si>
+  <si>
+    <t>Especificação</t>
+  </si>
+  <si>
+    <t>Tipo de Aplicação</t>
+  </si>
+  <si>
+    <t>Valor Indicado</t>
+  </si>
+  <si>
+    <t>Data da Indicação no SIGCON</t>
+  </si>
+  <si>
+    <t>Valor Informado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relatórios contendo o status e a execução das emendas parlamentares - Emendas 2020. </t>
   </si>
 </sst>
 </file>
@@ -164,7 +311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -173,6 +320,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -395,7 +544,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -408,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -416,7 +565,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -424,7 +573,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -432,7 +581,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -440,7 +589,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -448,7 +597,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -456,10 +605,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -472,7 +621,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -493,7 +642,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -503,7 +652,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -522,75 +671,285 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E25" s="3"/>
     </row>
   </sheetData>

--- a/Documentação_CovêniosSaída.xlsx
+++ b/Documentação_CovêniosSaída.xlsx
@@ -8,51 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2cb3d3d3ab363be3/git/dadosAbertosSEGOVMG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="11_A00C3EBA7D9A6D2C82DA887ABCFB0D7B6A61C7FA" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{092C1496-E850-4E8B-9D2D-CDC24D82B0E1}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="11_A00C3EBA7D9A6D2C82DA887ABCFB0D7B6A61C7FA" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D6C114F2-1255-4587-A412-E12A0E98F66F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Documentaçãometadados" sheetId="1" r:id="rId1"/>
-    <sheet name="Dicionário" sheetId="2" r:id="rId2"/>
+    <sheet name="Dicionário" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
-  <si>
-    <t>Nome</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>Título</t>
   </si>
   <si>
-    <t>Perfil</t>
-  </si>
-  <si>
     <t>Descrição</t>
   </si>
   <si>
-    <t>Página na internet</t>
-  </si>
-  <si>
-    <t>Versão</t>
-  </si>
-  <si>
-    <t>Autor</t>
-  </si>
-  <si>
-    <t>Licença</t>
-  </si>
-  <si>
-    <t>Licença utilizada</t>
-  </si>
-  <si>
-    <t>Palavras-chaves</t>
-  </si>
-  <si>
     <t>Nome da coluna</t>
   </si>
   <si>
@@ -62,27 +37,6 @@
     <t>Formato dos dados</t>
   </si>
   <si>
-    <t>Execução das emendas parlamentares - Emendas 2020</t>
-  </si>
-  <si>
-    <t>http://www.sigconsaida.mg.gov.br/emendas-2020/#</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>Marcela Pires Estevanovic</t>
-  </si>
-  <si>
-    <t>Emendas Parlamentares, Execução Orçamentária, Gasto Público, Transferências Voluntárias</t>
-  </si>
-  <si>
-    <t>execucao_emenda_2020</t>
-  </si>
-  <si>
-    <t>Dados dos relatórios disponibilizados no portal SIGCON-SAÍDA</t>
-  </si>
-  <si>
     <t>Nome do Relatório</t>
   </si>
   <si>
@@ -231,16 +185,13 @@
   </si>
   <si>
     <t>Valor Informado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relatórios contendo o status e a execução das emendas parlamentares - Emendas 2020. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -253,39 +204,13 @@
       <name val="Arial"/>
     </font>
     <font>
-      <i/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -307,24 +232,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -537,103 +456,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{68746514-0812-4FC6-AF1C-1070F6D761ED}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -651,306 +473,306 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>20</v>
+      <c r="A1" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>24</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>26</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>27</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>29</v>
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>31</v>
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>32</v>
+        <v>6</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>33</v>
+        <v>6</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>34</v>
+        <v>6</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>35</v>
+        <v>6</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>37</v>
+        <v>6</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>38</v>
+        <v>6</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>39</v>
+        <v>6</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>40</v>
+        <v>6</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>41</v>
+        <v>6</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>42</v>
+        <v>6</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E23" s="3"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E24" s="3"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E25" s="3"/>
+      <c r="E25" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
